--- a/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>2536</v>
+        <v>2670</v>
       </c>
       <c r="D2">
-        <v>1290.5</v>
+        <v>1357.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <v>2682</v>
+        <v>2811</v>
       </c>
       <c r="D3">
-        <v>1427.5</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>2530</v>
+        <v>2666</v>
       </c>
       <c r="D4">
-        <v>1279</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>2549</v>
+        <v>2683</v>
       </c>
       <c r="D5">
-        <v>1315.5</v>
+        <v>1382.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <v>2556</v>
+        <v>2692</v>
       </c>
       <c r="D6">
-        <v>1322.5</v>
+        <v>1390.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>2557</v>
+        <v>2693</v>
       </c>
       <c r="D7">
-        <v>1315.5</v>
+        <v>1383.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2523</v>
+        <v>2659</v>
       </c>
       <c r="D8">
-        <v>1269.5</v>
+        <v>1337.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>64</v>
       </c>
       <c r="C9">
-        <v>2544</v>
+        <v>2679</v>
       </c>
       <c r="D9">
-        <v>1304</v>
+        <v>1371.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>3624</v>
       </c>
       <c r="C10">
-        <v>2514</v>
+        <v>2650</v>
       </c>
       <c r="D10">
-        <v>2514</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>2524</v>
+        <v>2660</v>
       </c>
       <c r="D11">
-        <v>1269.5</v>
+        <v>1337.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -551,7 +551,7 @@
         <v>65.11111111111111</v>
       </c>
       <c r="C12">
-        <v>2551.5</v>
+        <v>2686.3</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Bos _2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>2670</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>1357.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <v>2811</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>1492</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>2666</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>1347</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>2683</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>1382.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <v>2692</v>
+        <v>113</v>
       </c>
       <c r="D6">
-        <v>1390.5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>2693</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>1383.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2659</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>1337.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>64</v>
       </c>
       <c r="C9">
-        <v>2679</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>1371.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>3624</v>
       </c>
       <c r="C10">
-        <v>2650</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>2650</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>2660</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>1337.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -551,7 +551,7 @@
         <v>65.11111111111111</v>
       </c>
       <c r="C12">
-        <v>2686.3</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
   </sheetData>
